--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cxcr4</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H2">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I2">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J2">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.4728802740447</v>
+        <v>21.605737</v>
       </c>
       <c r="N2">
-        <v>18.4728802740447</v>
+        <v>64.817211</v>
       </c>
       <c r="O2">
-        <v>0.04282037503870845</v>
+        <v>0.04481006619585007</v>
       </c>
       <c r="P2">
-        <v>0.04282037503870845</v>
+        <v>0.04512976179082277</v>
       </c>
       <c r="Q2">
-        <v>2742.792656995995</v>
+        <v>3394.392962465103</v>
       </c>
       <c r="R2">
-        <v>2742.792656995995</v>
+        <v>30549.53666218592</v>
       </c>
       <c r="S2">
-        <v>0.01023175398860147</v>
+        <v>0.010102348901444</v>
       </c>
       <c r="T2">
-        <v>0.01023175398860147</v>
+        <v>0.01064571321554551</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H3">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I3">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J3">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>186.487118979237</v>
+        <v>0.4738613333333333</v>
       </c>
       <c r="N3">
-        <v>186.487118979237</v>
+        <v>1.421584</v>
       </c>
       <c r="O3">
-        <v>0.4322795501359428</v>
+        <v>0.0009827833095589584</v>
       </c>
       <c r="P3">
-        <v>0.4322795501359428</v>
+        <v>0.0009897949371139249</v>
       </c>
       <c r="Q3">
-        <v>27688.99559638602</v>
+        <v>74.44650349353955</v>
       </c>
       <c r="R3">
-        <v>27688.99559638602</v>
+        <v>670.018531441856</v>
       </c>
       <c r="S3">
-        <v>0.1032914356143782</v>
+        <v>0.0002215667311065013</v>
       </c>
       <c r="T3">
-        <v>0.1032914356143782</v>
+        <v>0.0002334839056220431</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H4">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I4">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J4">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>216.412317214466</v>
+        <v>229.146642</v>
       </c>
       <c r="N4">
-        <v>216.412317214466</v>
+        <v>687.439926</v>
       </c>
       <c r="O4">
-        <v>0.5016465461068224</v>
+        <v>0.4752476713280717</v>
       </c>
       <c r="P4">
-        <v>0.5016465461068224</v>
+        <v>0.4786383065121521</v>
       </c>
       <c r="Q4">
-        <v>32132.19085132739</v>
+        <v>36000.33403060078</v>
       </c>
       <c r="R4">
-        <v>32132.19085132739</v>
+        <v>324003.006275407</v>
       </c>
       <c r="S4">
-        <v>0.1198663964142488</v>
+        <v>0.1071437334944085</v>
       </c>
       <c r="T4">
-        <v>0.1198663964142488</v>
+        <v>0.1129065597270427</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H5">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I5">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J5">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.0316648693078</v>
+        <v>220.6895343333333</v>
       </c>
       <c r="N5">
-        <v>10.0316648693078</v>
+        <v>662.0686029999999</v>
       </c>
       <c r="O5">
-        <v>0.02325352871852629</v>
+        <v>0.4577077209728135</v>
       </c>
       <c r="P5">
-        <v>0.02325352871852629</v>
+        <v>0.4609732180943856</v>
       </c>
       <c r="Q5">
-        <v>1489.468687762879</v>
+        <v>34671.67087291525</v>
       </c>
       <c r="R5">
-        <v>1489.468687762879</v>
+        <v>312045.0378562372</v>
       </c>
       <c r="S5">
-        <v>0.005556335856464664</v>
+        <v>0.1031893832056058</v>
       </c>
       <c r="T5">
-        <v>0.005556335856464664</v>
+        <v>0.1087395209978235</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>391.450386706388</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H6">
-        <v>391.450386706388</v>
+        <v>471.318284</v>
       </c>
       <c r="I6">
-        <v>0.6299672705088303</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J6">
-        <v>0.6299672705088303</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.4728802740447</v>
+        <v>10.2468025</v>
       </c>
       <c r="N6">
-        <v>18.4728802740447</v>
+        <v>20.493605</v>
       </c>
       <c r="O6">
-        <v>0.04282037503870845</v>
+        <v>0.02125175819370578</v>
       </c>
       <c r="P6">
-        <v>0.04282037503870845</v>
+        <v>0.01426891866552565</v>
       </c>
       <c r="Q6">
-        <v>7231.216126855605</v>
+        <v>1609.835123595637</v>
       </c>
       <c r="R6">
-        <v>7231.216126855605</v>
+        <v>9659.010741573822</v>
       </c>
       <c r="S6">
-        <v>0.02697543478529961</v>
+        <v>0.004791170695967863</v>
       </c>
       <c r="T6">
-        <v>0.02697543478529961</v>
+        <v>0.003365912204748669</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H7">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I7">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J7">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>186.487118979237</v>
+        <v>21.605737</v>
       </c>
       <c r="N7">
-        <v>186.487118979237</v>
+        <v>64.817211</v>
       </c>
       <c r="O7">
-        <v>0.4322795501359428</v>
+        <v>0.04481006619585007</v>
       </c>
       <c r="P7">
-        <v>0.4322795501359428</v>
+        <v>0.04512976179082277</v>
       </c>
       <c r="Q7">
-        <v>73000.45484018252</v>
+        <v>9650.599666928571</v>
       </c>
       <c r="R7">
-        <v>73000.45484018252</v>
+        <v>86855.39700235713</v>
       </c>
       <c r="S7">
-        <v>0.2723219682959249</v>
+        <v>0.02872199124307309</v>
       </c>
       <c r="T7">
-        <v>0.2723219682959249</v>
+        <v>0.03026683049022992</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H8">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I8">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J8">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>216.412317214466</v>
+        <v>0.4738613333333333</v>
       </c>
       <c r="N8">
-        <v>216.412317214466</v>
+        <v>1.421584</v>
       </c>
       <c r="O8">
-        <v>0.5016465461068224</v>
+        <v>0.0009827833095589584</v>
       </c>
       <c r="P8">
-        <v>0.5016465461068224</v>
+        <v>0.0009897949371139249</v>
       </c>
       <c r="Q8">
-        <v>84714.68526162821</v>
+        <v>211.6588767898542</v>
       </c>
       <c r="R8">
-        <v>84714.68526162821</v>
+        <v>1904.929891108688</v>
       </c>
       <c r="S8">
-        <v>0.316020905411097</v>
+        <v>0.0006299364407902836</v>
       </c>
       <c r="T8">
-        <v>0.316020905411097</v>
+        <v>0.0006638181632903491</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H9">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I9">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J9">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.0316648693078</v>
+        <v>229.146642</v>
       </c>
       <c r="N9">
-        <v>10.0316648693078</v>
+        <v>687.439926</v>
       </c>
       <c r="O9">
-        <v>0.02325352871852629</v>
+        <v>0.4752476713280717</v>
       </c>
       <c r="P9">
-        <v>0.02325352871852629</v>
+        <v>0.4786383065121521</v>
       </c>
       <c r="Q9">
-        <v>3926.899092399425</v>
+        <v>102352.5606630776</v>
       </c>
       <c r="R9">
-        <v>3926.899092399425</v>
+        <v>921173.0459676984</v>
       </c>
       <c r="S9">
-        <v>0.0146489620165087</v>
+        <v>0.3046203813785017</v>
       </c>
       <c r="T9">
-        <v>0.0146489620165087</v>
+        <v>0.3210046743982582</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.297937132205239</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H10">
-        <v>0.297937132205239</v>
+        <v>1340.005157</v>
       </c>
       <c r="I10">
-        <v>0.000479474917722696</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J10">
-        <v>0.000479474917722696</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.4728802740447</v>
+        <v>220.6895343333333</v>
       </c>
       <c r="N10">
-        <v>18.4728802740447</v>
+        <v>662.0686029999999</v>
       </c>
       <c r="O10">
-        <v>0.04282037503870845</v>
+        <v>0.4577077209728135</v>
       </c>
       <c r="P10">
-        <v>0.04282037503870845</v>
+        <v>0.4609732180943856</v>
       </c>
       <c r="Q10">
-        <v>5.503756972419608</v>
+        <v>98575.0380341984</v>
       </c>
       <c r="R10">
-        <v>5.503756972419608</v>
+        <v>887175.3423077856</v>
       </c>
       <c r="S10">
-        <v>2.053129579853972E-05</v>
+        <v>0.293377766866267</v>
       </c>
       <c r="T10">
-        <v>2.053129579853972E-05</v>
+        <v>0.3091573653162017</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.297937132205239</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H11">
-        <v>0.297937132205239</v>
+        <v>1340.005157</v>
       </c>
       <c r="I11">
-        <v>0.000479474917722696</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J11">
-        <v>0.000479474917722696</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.487118979237</v>
+        <v>10.2468025</v>
       </c>
       <c r="N11">
-        <v>186.487118979237</v>
+        <v>20.493605</v>
       </c>
       <c r="O11">
-        <v>0.4322795501359428</v>
+        <v>0.02125175819370578</v>
       </c>
       <c r="P11">
-        <v>0.4322795501359428</v>
+        <v>0.01426891866552565</v>
       </c>
       <c r="Q11">
-        <v>55.56143742189107</v>
+        <v>4576.922730920165</v>
       </c>
       <c r="R11">
-        <v>55.56143742189107</v>
+        <v>27461.53638552099</v>
       </c>
       <c r="S11">
-        <v>0.0002072672017346352</v>
+        <v>0.01362177886708977</v>
       </c>
       <c r="T11">
-        <v>0.0002072672017346352</v>
+        <v>0.00956962601597789</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H12">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I12">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J12">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>216.412317214466</v>
+        <v>21.605737</v>
       </c>
       <c r="N12">
-        <v>216.412317214466</v>
+        <v>64.817211</v>
       </c>
       <c r="O12">
-        <v>0.5016465461068224</v>
+        <v>0.04481006619585007</v>
       </c>
       <c r="P12">
-        <v>0.5016465461068224</v>
+        <v>0.04512976179082277</v>
       </c>
       <c r="Q12">
-        <v>64.47726516476847</v>
+        <v>10.24471309225433</v>
       </c>
       <c r="R12">
-        <v>64.47726516476847</v>
+        <v>92.20241783028901</v>
       </c>
       <c r="S12">
-        <v>0.0002405269364204433</v>
+        <v>3.049018401746363E-05</v>
       </c>
       <c r="T12">
-        <v>0.0002405269364204433</v>
+        <v>3.21301271719819E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H13">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I13">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J13">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>10.0316648693078</v>
+        <v>0.4738613333333333</v>
       </c>
       <c r="N13">
-        <v>10.0316648693078</v>
+        <v>1.421584</v>
       </c>
       <c r="O13">
-        <v>0.02325352871852629</v>
+        <v>0.0009827833095589584</v>
       </c>
       <c r="P13">
-        <v>0.02325352871852629</v>
+        <v>0.0009897949371139249</v>
       </c>
       <c r="Q13">
-        <v>2.98880546240561</v>
+        <v>0.2246890909351111</v>
       </c>
       <c r="R13">
-        <v>2.98880546240561</v>
+        <v>2.022201818416</v>
       </c>
       <c r="S13">
-        <v>1.114948376907774E-05</v>
+        <v>6.687167973994132E-07</v>
       </c>
       <c r="T13">
-        <v>1.114948376907774E-05</v>
+        <v>7.046843577650189E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>81.157058922622</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H14">
-        <v>81.157058922622</v>
+        <v>1.422499</v>
       </c>
       <c r="I14">
-        <v>0.1306073326997538</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J14">
-        <v>0.1306073326997538</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.4728802740447</v>
+        <v>229.146642</v>
       </c>
       <c r="N14">
-        <v>18.4728802740447</v>
+        <v>687.439926</v>
       </c>
       <c r="O14">
-        <v>0.04282037503870845</v>
+        <v>0.4752476713280717</v>
       </c>
       <c r="P14">
-        <v>0.04282037503870845</v>
+        <v>0.4786383065121521</v>
       </c>
       <c r="Q14">
-        <v>1499.204632871187</v>
+        <v>108.653623032786</v>
       </c>
       <c r="R14">
-        <v>1499.204632871187</v>
+        <v>977.8826072950742</v>
       </c>
       <c r="S14">
-        <v>0.005592654969008827</v>
+        <v>0.0003233735225770758</v>
       </c>
       <c r="T14">
-        <v>0.005592654969008827</v>
+        <v>0.0003407664708911624</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>81.157058922622</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H15">
-        <v>81.157058922622</v>
+        <v>1.422499</v>
       </c>
       <c r="I15">
-        <v>0.1306073326997538</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J15">
-        <v>0.1306073326997538</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>186.487118979237</v>
+        <v>220.6895343333333</v>
       </c>
       <c r="N15">
-        <v>186.487118979237</v>
+        <v>662.0686029999999</v>
       </c>
       <c r="O15">
-        <v>0.4322795501359428</v>
+        <v>0.4577077209728135</v>
       </c>
       <c r="P15">
-        <v>0.4322795501359428</v>
+        <v>0.4609732180943856</v>
       </c>
       <c r="Q15">
-        <v>15134.74610330796</v>
+        <v>104.6435472998775</v>
       </c>
       <c r="R15">
-        <v>15134.74610330796</v>
+        <v>941.791925698897</v>
       </c>
       <c r="S15">
-        <v>0.05645887902390497</v>
+        <v>0.0003114387864922955</v>
       </c>
       <c r="T15">
-        <v>0.05645887902390497</v>
+        <v>0.0003281898138284042</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>81.157058922622</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H16">
-        <v>81.157058922622</v>
+        <v>1.422499</v>
       </c>
       <c r="I16">
-        <v>0.1306073326997538</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J16">
-        <v>0.1306073326997538</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>216.412317214466</v>
+        <v>10.2468025</v>
       </c>
       <c r="N16">
-        <v>216.412317214466</v>
+        <v>20.493605</v>
       </c>
       <c r="O16">
-        <v>0.5016465461068224</v>
+        <v>0.02125175819370578</v>
       </c>
       <c r="P16">
-        <v>0.5016465461068224</v>
+        <v>0.01426891866552565</v>
       </c>
       <c r="Q16">
-        <v>17563.38717975558</v>
+        <v>4.858688769815835</v>
       </c>
       <c r="R16">
-        <v>17563.38717975558</v>
+        <v>29.15213261889501</v>
       </c>
       <c r="S16">
-        <v>0.06551871734505611</v>
+        <v>1.446036734667308E-05</v>
       </c>
       <c r="T16">
-        <v>0.06551871734505611</v>
+        <v>1.015875451448172E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06163166666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.184895</v>
+      </c>
+      <c r="I17">
+        <v>8.844181716268947E-05</v>
+      </c>
+      <c r="J17">
+        <v>9.253853089314783E-05</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.605737</v>
+      </c>
+      <c r="N17">
+        <v>64.817211</v>
+      </c>
+      <c r="O17">
+        <v>0.04481006619585007</v>
+      </c>
+      <c r="P17">
+        <v>0.04512976179082277</v>
+      </c>
+      <c r="Q17">
+        <v>1.331597580871667</v>
+      </c>
+      <c r="R17">
+        <v>11.984378227845</v>
+      </c>
+      <c r="S17">
+        <v>3.963083681541384E-06</v>
+      </c>
+      <c r="T17">
+        <v>4.176241855680456E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06163166666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.184895</v>
+      </c>
+      <c r="I18">
+        <v>8.844181716268947E-05</v>
+      </c>
+      <c r="J18">
+        <v>9.253853089314783E-05</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.4738613333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.421584</v>
+      </c>
+      <c r="O18">
+        <v>0.0009827833095589584</v>
+      </c>
+      <c r="P18">
+        <v>0.0009897949371139249</v>
+      </c>
+      <c r="Q18">
+        <v>0.02920486374222222</v>
+      </c>
+      <c r="R18">
+        <v>0.26284377368</v>
+      </c>
+      <c r="S18">
+        <v>8.691914177455625E-08</v>
+      </c>
+      <c r="T18">
+        <v>9.159416936599825E-08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06163166666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.184895</v>
+      </c>
+      <c r="I19">
+        <v>8.844181716268947E-05</v>
+      </c>
+      <c r="J19">
+        <v>9.253853089314783E-05</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>229.146642</v>
+      </c>
+      <c r="N19">
+        <v>687.439926</v>
+      </c>
+      <c r="O19">
+        <v>0.4752476713280717</v>
+      </c>
+      <c r="P19">
+        <v>0.4786383065121521</v>
+      </c>
+      <c r="Q19">
+        <v>14.12268945753</v>
+      </c>
+      <c r="R19">
+        <v>127.10420511777</v>
+      </c>
+      <c r="S19">
+        <v>4.203176765459126E-05</v>
+      </c>
+      <c r="T19">
+        <v>4.429248571381874E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06163166666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.184895</v>
+      </c>
+      <c r="I20">
+        <v>8.844181716268947E-05</v>
+      </c>
+      <c r="J20">
+        <v>9.253853089314783E-05</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>220.6895343333333</v>
+      </c>
+      <c r="N20">
+        <v>662.0686029999999</v>
+      </c>
+      <c r="O20">
+        <v>0.4577077209728135</v>
+      </c>
+      <c r="P20">
+        <v>0.4609732180943856</v>
+      </c>
+      <c r="Q20">
+        <v>13.60146381685389</v>
+      </c>
+      <c r="R20">
+        <v>122.413174351685</v>
+      </c>
+      <c r="S20">
+        <v>4.048050257222886E-05</v>
+      </c>
+      <c r="T20">
+        <v>4.265778438354107E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06163166666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.184895</v>
+      </c>
+      <c r="I21">
+        <v>8.844181716268947E-05</v>
+      </c>
+      <c r="J21">
+        <v>9.253853089314783E-05</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.2468025</v>
+      </c>
+      <c r="N21">
+        <v>20.493605</v>
+      </c>
+      <c r="O21">
+        <v>0.02125175819370578</v>
+      </c>
+      <c r="P21">
+        <v>0.01426891866552565</v>
+      </c>
+      <c r="Q21">
+        <v>0.6315275160791668</v>
+      </c>
+      <c r="R21">
+        <v>3.789165096475001</v>
+      </c>
+      <c r="S21">
+        <v>1.879544112553414E-06</v>
+      </c>
+      <c r="T21">
+        <v>1.320424770741559E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H22">
+        <v>185.101749</v>
+      </c>
+      <c r="I22">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J22">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>21.605737</v>
+      </c>
+      <c r="N22">
+        <v>64.817211</v>
+      </c>
+      <c r="O22">
+        <v>0.04481006619585007</v>
+      </c>
+      <c r="P22">
+        <v>0.04512976179082277</v>
+      </c>
+      <c r="Q22">
+        <v>1999.629853567006</v>
+      </c>
+      <c r="R22">
+        <v>11997.77912140204</v>
+      </c>
+      <c r="S22">
+        <v>0.005951272783633974</v>
+      </c>
+      <c r="T22">
+        <v>0.004180911716019676</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H23">
+        <v>185.101749</v>
+      </c>
+      <c r="I23">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J23">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.4738613333333333</v>
+      </c>
+      <c r="N23">
+        <v>1.421584</v>
+      </c>
+      <c r="O23">
+        <v>0.0009827833095589584</v>
+      </c>
+      <c r="P23">
+        <v>0.0009897949371139249</v>
+      </c>
+      <c r="Q23">
+        <v>43.85628079173599</v>
+      </c>
+      <c r="R23">
+        <v>263.137684750416</v>
+      </c>
+      <c r="S23">
+        <v>0.0001305245017229995</v>
+      </c>
+      <c r="T23">
+        <v>9.169658967440167E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H24">
+        <v>185.101749</v>
+      </c>
+      <c r="I24">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J24">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>229.146642</v>
+      </c>
+      <c r="N24">
+        <v>687.439926</v>
+      </c>
+      <c r="O24">
+        <v>0.4752476713280717</v>
+      </c>
+      <c r="P24">
+        <v>0.4786383065121521</v>
+      </c>
+      <c r="Q24">
+        <v>21207.72210583843</v>
+      </c>
+      <c r="R24">
+        <v>127246.3326350306</v>
+      </c>
+      <c r="S24">
+        <v>0.06311815116492984</v>
+      </c>
+      <c r="T24">
+        <v>0.04434201343024616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>81.157058922622</v>
-      </c>
-      <c r="H17">
-        <v>81.157058922622</v>
-      </c>
-      <c r="I17">
-        <v>0.1306073326997538</v>
-      </c>
-      <c r="J17">
-        <v>0.1306073326997538</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>10.0316648693078</v>
-      </c>
-      <c r="N17">
-        <v>10.0316648693078</v>
-      </c>
-      <c r="O17">
-        <v>0.02325352871852629</v>
-      </c>
-      <c r="P17">
-        <v>0.02325352871852629</v>
-      </c>
-      <c r="Q17">
-        <v>814.1404168904103</v>
-      </c>
-      <c r="R17">
-        <v>814.1404168904103</v>
-      </c>
-      <c r="S17">
-        <v>0.003037081361783842</v>
-      </c>
-      <c r="T17">
-        <v>0.003037081361783842</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H25">
+        <v>185.101749</v>
+      </c>
+      <c r="I25">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J25">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>220.6895343333333</v>
+      </c>
+      <c r="N25">
+        <v>662.0686029999999</v>
+      </c>
+      <c r="O25">
+        <v>0.4577077209728135</v>
+      </c>
+      <c r="P25">
+        <v>0.4609732180943856</v>
+      </c>
+      <c r="Q25">
+        <v>20425.00939554777</v>
+      </c>
+      <c r="R25">
+        <v>122550.0563732866</v>
+      </c>
+      <c r="S25">
+        <v>0.06078865161187615</v>
+      </c>
+      <c r="T25">
+        <v>0.04270548418214846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H26">
+        <v>185.101749</v>
+      </c>
+      <c r="I26">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J26">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.2468025</v>
+      </c>
+      <c r="N26">
+        <v>20.493605</v>
+      </c>
+      <c r="O26">
+        <v>0.02125175819370578</v>
+      </c>
+      <c r="P26">
+        <v>0.01426891866552565</v>
+      </c>
+      <c r="Q26">
+        <v>948.3505322037863</v>
+      </c>
+      <c r="R26">
+        <v>3793.402128815145</v>
+      </c>
+      <c r="S26">
+        <v>0.002822468719188916</v>
+      </c>
+      <c r="T26">
+        <v>0.001321901265513868</v>
       </c>
     </row>
   </sheetData>
